--- a/Mifos Automation Excels/Client/4751-SUBMITFD01JAN2015(AMT5000-PRD06MNTHwithINCT-5)-APRACT01JAN2015.xlsx
+++ b/Mifos Automation Excels/Client/4751-SUBMITFD01JAN2015(AMT5000-PRD06MNTHwithINCT-5)-APRACT01JAN2015.xlsx
@@ -165,7 +165,7 @@
     <t>Summary</t>
   </si>
   <si>
-    <t>Un Married</t>
+    <t>Married</t>
   </si>
 </sst>
 </file>
